--- a/data/TF_TestData.xlsx
+++ b/data/TF_TestData.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19512" windowHeight="5076" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19515" windowHeight="5070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginInfo" sheetId="1" r:id="rId1"/>
     <sheet name="AddContactInfo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -87,8 +86,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,10 +230,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,20 +439,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -478,24 +475,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -524,7 +521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
